--- a/TestData/LLP Sample File.xlsx
+++ b/TestData/LLP Sample File.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DD3AD5-60D7-4D87-9551-5E2F9C9A6908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="420" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entity Master - LLP" sheetId="1" r:id="rId1"/>
@@ -613,9 +612,6 @@
     <t>Main Division</t>
   </si>
   <si>
-    <t>AAD-0189</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAM SERVICES LLP     </t>
   </si>
   <si>
@@ -998,9 +994,6 @@
   </si>
   <si>
     <t>% of Holding</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
   <si>
     <t>AAAB DTA CORP</t>
@@ -1050,12 +1043,18 @@
   </si>
   <si>
     <t>000047633</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>AAD-0134</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1325,23 +1324,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1377,23 +1359,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1569,34 +1534,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="16" customWidth="1"/>
-    <col min="4" max="9" width="22.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="24.109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="16" customWidth="1"/>
+    <col min="4" max="9" width="22.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" customWidth="1"/>
     <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="21" width="27.88671875" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1661,21 +1626,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>47</v>
@@ -1690,16 +1655,16 @@
         <v>411001</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="O2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1719,34 +1684,34 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{CF8C12FB-EBEE-4C19-A718-67B882021E73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"Business,Profession,Service,Occupation,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{D9B3D415-391B-4AF6-B3E3-698D5C846D88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"India"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0785E2A-7F8B-4AD1-94CB-11933042C339}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data_ROC!$A$1:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>N1:N1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5C9F5D7C-3F18-457A-AF0E-267B709AFE4D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data_ROC!$C$1:$C$40</xm:f>
           </x14:formula1>
           <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBA57B2A-F443-456B-9C97-D52BCC5C3044}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data_ROC!$E$1:$E$62</xm:f>
           </x14:formula1>
@@ -1759,37 +1724,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="18" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="11" width="22.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="11" width="22.28515625" style="3" customWidth="1"/>
     <col min="12" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" style="18" customWidth="1"/>
-    <col min="22" max="22" width="19.5546875" customWidth="1"/>
-    <col min="23" max="23" width="17.5546875" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" style="18" customWidth="1"/>
-    <col min="25" max="25" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="27.44140625" customWidth="1"/>
-    <col min="27" max="27" width="19.88671875" customWidth="1"/>
-    <col min="28" max="28" width="15.5546875" style="18" customWidth="1"/>
-    <col min="29" max="29" width="16.44140625" style="24" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" style="18" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="18.7109375" customWidth="1"/>
+    <col min="26" max="26" width="27.42578125" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" style="18" customWidth="1"/>
+    <col min="29" max="29" width="16.42578125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -1875,24 +1840,24 @@
         <v>120</v>
       </c>
       <c r="AC1" s="23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>51</v>
@@ -1907,7 +1872,7 @@
         <v>90</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K2" s="6">
         <v>400057</v>
@@ -1931,7 +1896,7 @@
         <v>400057</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
         <v>55</v>
@@ -1952,7 +1917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1970,19 +1935,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{7C02CD4A-AA36-48B5-BD16-ACA36DAE7989}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"INDIA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{4924B757-7B2A-42EE-8A91-D4D55690474D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>"Mr.,Mrs.,Ms."</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{7E00864D-97FE-465F-8661-DF8C7C3A78E0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"Designated Partner,Partner"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576" xr:uid="{241EDDAC-1449-4ECF-B8E6-54EF687F82C0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
       <formula1>"INDIAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{6D18024F-8FD8-4AB3-99CF-BD0E2C70ACFC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"India"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1991,7 +1956,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F8ABE32E-0B5A-4BCD-9B5C-4A79FBB61B78}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data_ROC!$C$1:$C$40</xm:f>
           </x14:formula1>
@@ -2004,39 +1969,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="19" style="18" customWidth="1"/>
     <col min="12" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="19" style="18" customWidth="1"/>
     <col min="15" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="23.88671875" customWidth="1"/>
-    <col min="20" max="24" width="26.109375" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="26" width="26.5546875" style="18" customWidth="1"/>
-    <col min="27" max="30" width="18.33203125" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" style="18" customWidth="1"/>
-    <col min="32" max="33" width="18.5546875" customWidth="1"/>
-    <col min="34" max="34" width="16.44140625" style="24" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" customWidth="1"/>
+    <col min="20" max="24" width="26.140625" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" style="18" customWidth="1"/>
+    <col min="27" max="30" width="18.28515625" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="18" customWidth="1"/>
+    <col min="32" max="33" width="18.5703125" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -2056,28 +2021,28 @@
         <v>23</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="N1" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>13</v>
@@ -2116,42 +2081,42 @@
         <v>45</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AE1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="AG1" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="AH1" s="23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>52</v>
@@ -2160,22 +2125,22 @@
         <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>55</v>
@@ -2184,10 +2149,10 @@
         <v>56</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>52</v>
@@ -2202,10 +2167,10 @@
         <v>411000</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>52</v>
@@ -2220,7 +2185,7 @@
         <v>411001</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF2">
         <v>1000</v>
@@ -2234,40 +2199,40 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{D8C4DBDC-BF73-41EF-8F06-888F0D8C3ACC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"India,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576" xr:uid="{84E44880-E400-49DD-9ED9-2EFAE2ABFCA3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{8F274119-AA07-4C0B-9198-B02909AB630A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"LLP,Company,Foreign LLP,Foreign Company,LLP incorporated outside India (LIOI)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{4599E207-5FC7-4CCB-866D-0C0C06C7F36C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"Mr.,Mrs.,Ms."</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576 AA1:AA1048576" xr:uid="{493352D0-EAFF-4182-A32E-B790F3C76D38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576 AA1:AA1048576">
       <formula1>"INDIA,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{6DC24C0B-2B45-44EC-8BB8-3A8A3510571B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
       <formula1>"INDIAN,NA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{8B974BBC-7DB2-4E2D-A7E0-38955FB95FBF}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{550DA57A-D293-43CB-8B7B-0472E1686BE0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data_ROC!$C$1:$C$40</xm:f>
           </x14:formula1>
           <xm:sqref>V1:V1048576 AB1:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0ED3F22C-21FF-424C-8FBD-ACB9D72259F7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data_ROC!$A$1:$A$24</xm:f>
           </x14:formula1>
@@ -2280,29 +2245,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49171E6-0688-46F0-9101-6CF37ED11256}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="18" customWidth="1"/>
     <col min="10" max="10" width="19" style="18" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -2322,56 +2287,56 @@
         <v>23</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>208</v>
-      </c>
       <c r="K1" s="26" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
       </c>
       <c r="H2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>328</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{B9A31213-F48E-4591-95DE-F5B23456907E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>"LLP,Company,Foreign LLP,Foreign Company,LLP incorporated outside India (LIOI)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{3541ED4B-540D-4341-8CD9-70C705210C13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"India,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2381,23 +2346,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4F2B8C-8676-4A5A-9F8A-E75988077988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2408,13 +2373,13 @@
         <v>123</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -2425,13 +2390,13 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2448,7 +2413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -2459,13 +2424,13 @@
         <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -2476,13 +2441,13 @@
         <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -2493,13 +2458,13 @@
         <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2510,13 +2475,13 @@
         <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2527,13 +2492,13 @@
         <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2544,13 +2509,13 @@
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2561,13 +2526,13 @@
         <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -2578,13 +2543,13 @@
         <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2595,13 +2560,13 @@
         <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2612,13 +2577,13 @@
         <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2629,13 +2594,13 @@
         <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2646,13 +2611,13 @@
         <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -2663,13 +2628,13 @@
         <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -2680,13 +2645,13 @@
         <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2697,13 +2662,13 @@
         <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2714,13 +2679,13 @@
         <v>141</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2731,13 +2696,13 @@
         <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2748,13 +2713,13 @@
         <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2765,13 +2730,13 @@
         <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -2782,13 +2747,13 @@
         <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2799,13 +2764,13 @@
         <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>102</v>
       </c>
@@ -2813,13 +2778,13 @@
         <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>103</v>
       </c>
@@ -2827,13 +2792,13 @@
         <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>72</v>
       </c>
@@ -2841,13 +2806,13 @@
         <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>104</v>
       </c>
@@ -2855,13 +2820,13 @@
         <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>105</v>
       </c>
@@ -2869,13 +2834,13 @@
         <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>106</v>
       </c>
@@ -2883,13 +2848,13 @@
         <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>107</v>
       </c>
@@ -2897,13 +2862,13 @@
         <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>108</v>
       </c>
@@ -2911,13 +2876,13 @@
         <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>109</v>
       </c>
@@ -2925,13 +2890,13 @@
         <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>110</v>
       </c>
@@ -2939,13 +2904,13 @@
         <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>111</v>
       </c>
@@ -2953,13 +2918,13 @@
         <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>112</v>
       </c>
@@ -2967,13 +2932,13 @@
         <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>113</v>
       </c>
@@ -2981,13 +2946,13 @@
         <v>159</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>114</v>
       </c>
@@ -2995,13 +2960,13 @@
         <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>115</v>
       </c>
@@ -3009,13 +2974,13 @@
         <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>116</v>
       </c>
@@ -3023,500 +2988,500 @@
         <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E41" s="18" t="s">
         <v>163</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E42" s="18" t="s">
         <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E43" s="18" t="s">
         <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E44" s="18" t="s">
         <v>166</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E45" s="18" t="s">
         <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E46" s="18" t="s">
         <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E47" s="18" t="s">
         <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E48" s="18" t="s">
         <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="18" t="s">
         <v>171</v>
       </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G49" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="18" t="s">
         <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="18" t="s">
         <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" s="18" t="s">
         <v>174</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" s="18" t="s">
         <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="18" t="s">
         <v>176</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="18" t="s">
         <v>177</v>
       </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E56" s="18" t="s">
         <v>178</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G56" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" s="18" t="s">
         <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G57" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E58" s="18" t="s">
         <v>180</v>
       </c>
       <c r="F58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G58" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E59" s="18" t="s">
         <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E60" s="18" t="s">
         <v>182</v>
       </c>
       <c r="F60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G60" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E61" s="18" t="s">
         <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E62" s="18" t="s">
         <v>184</v>
       </c>
       <c r="F62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
         <v>268</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F63" t="s">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
         <v>269</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F64" t="s">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
         <v>270</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F65" t="s">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
         <v>271</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F66" t="s">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
         <v>272</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F67" t="s">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
         <v>273</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
         <v>274</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F69" t="s">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
         <v>275</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F70" t="s">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
         <v>276</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F71" t="s">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
         <v>277</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F72" t="s">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
         <v>278</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F73" t="s">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
         <v>279</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F74" t="s">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
         <v>280</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F75" t="s">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
         <v>281</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F76" t="s">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
         <v>282</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G77" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F77" t="s">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
         <v>283</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F78" t="s">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
         <v>284</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F79" t="s">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
         <v>285</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F80" t="s">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
         <v>286</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G81" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F81" t="s">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
         <v>287</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F82" t="s">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
         <v>288</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F83" t="s">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F84" t="s">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
         <v>290</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" t="s">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
         <v>291</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" t="s">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>291</v>
+      </c>
+      <c r="G87" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
         <v>292</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G88" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" t="s">
-        <v>292</v>
-      </c>
-      <c r="G87" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F88" t="s">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
         <v>293</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G89" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F89" t="s">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
         <v>294</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F90" t="s">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
         <v>295</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G91" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F91" t="s">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
         <v>296</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G92" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F92" t="s">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
         <v>297</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F93" t="s">
-        <v>298</v>
-      </c>
-      <c r="G93" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
